--- a/statistics/signed_polarization/eigensign.xlsx
+++ b/statistics/signed_polarization/eigensign.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\ForumPolarization\statistics\signed_polarization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B88858-2F1E-4051-A861-E423B0515E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3417A4F-9DBC-48E6-9798-01EFA9913691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="2205" windowWidth="15300" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
   <si>
     <t>PS</t>
   </si>
@@ -42,12 +53,6 @@
     <t>PEA</t>
   </si>
   <si>
-    <t>Subs.</t>
-  </si>
-  <si>
-    <t>Coron.</t>
-  </si>
-  <si>
     <t>science</t>
   </si>
   <si>
@@ -57,9 +62,6 @@
     <t>S2</t>
   </si>
   <si>
-    <t>consp.</t>
-  </si>
-  <si>
     <t>eigensign</t>
   </si>
   <si>
@@ -72,9 +74,6 @@
     <t>Coron-consp</t>
   </si>
   <si>
-    <t>wrldn-consp</t>
-  </si>
-  <si>
     <t>Mrights-WvP</t>
   </si>
   <si>
@@ -100,6 +99,51 @@
   </si>
   <si>
     <t>(PS) Polarity score</t>
+  </si>
+  <si>
+    <t>random_eigensign</t>
+  </si>
+  <si>
+    <t>Coronavirus</t>
+  </si>
+  <si>
+    <t>conspiracy</t>
+  </si>
+  <si>
+    <t>WvPatriarchy</t>
+  </si>
+  <si>
+    <t>Conservative</t>
+  </si>
+  <si>
+    <t>MensRights</t>
+  </si>
+  <si>
+    <t>science-consp</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Subs,</t>
+  </si>
+  <si>
+    <t>consp,</t>
+  </si>
+  <si>
+    <t>lgbt-Cons,</t>
+  </si>
+  <si>
+    <t>consp,-space</t>
+  </si>
+  <si>
+    <t>Subs</t>
+  </si>
+  <si>
+    <t>Coron</t>
+  </si>
+  <si>
+    <t>consp</t>
   </si>
 </sst>
 </file>
@@ -132,7 +176,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -257,28 +301,243 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -302,6 +561,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,303 +860,799 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="7" width="7.42578125" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D1" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="N1" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F2" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="24"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D3" s="47"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="59"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="59"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="2">
         <v>6.7</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="11">
         <v>0</v>
       </c>
       <c r="G4" s="2">
         <v>88</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4">
+        <v>6.6740000000000004</v>
+      </c>
+      <c r="P4">
+        <v>89</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="D5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="14">
         <v>14.07</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="11">
         <v>1</v>
       </c>
       <c r="G5" s="2">
         <v>451</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="4">
+        <v>4.24</v>
+      </c>
+      <c r="P5">
+        <v>151</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="D6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="15">
         <v>4.25</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="11">
         <v>150</v>
       </c>
       <c r="G6" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="8">
+        <v>6.7</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="D7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="6">
         <v>9.94</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="12">
         <v>127</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="N7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="9">
+        <v>7.18</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="16">
         <v>6.7</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="13">
         <v>0</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>149</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="N8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="9">
+        <v>2.75</v>
+      </c>
+      <c r="P8" s="9">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="6">
         <v>3.83</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="12">
         <v>48</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="6">
         <v>0</v>
       </c>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="8" t="s">
-        <v>20</v>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D10" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="E10" s="3">
         <v>7.1</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="13">
         <v>69</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="5">
-        <v>5.27</v>
-      </c>
-      <c r="F11" s="5">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="12">
+      <c r="E11" s="6">
+        <v>3.48</v>
+      </c>
+      <c r="F11" s="12">
+        <v>51</v>
+      </c>
+      <c r="G11" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="F12" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D12" s="8" t="s">
+      <c r="G12" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="3">
-        <v>2.94</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="D15" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="G12" s="4">
+      <c r="F15" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="49"/>
+      <c r="H15" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="51"/>
+      <c r="J15" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="O15" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="S15" s="51"/>
+      <c r="T15" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="U15" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="V15" s="46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="47"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="47"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="R16" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="S16" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="T16" s="47"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="47"/>
+    </row>
+    <row r="17" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D17" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="23">
+        <v>3.0680000000000001</v>
+      </c>
+      <c r="F17" s="24">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="G17" s="24">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="H17" s="24">
+        <v>0.84619999999999995</v>
+      </c>
+      <c r="I17" s="24">
+        <v>0.96919999999999995</v>
+      </c>
+      <c r="J17" s="24">
+        <v>8.1100000000000005E-2</v>
+      </c>
+      <c r="K17" s="24">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="L17" s="24">
+        <v>0.89780000000000004</v>
+      </c>
+      <c r="N17" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="O17" s="23">
+        <v>2.96</v>
+      </c>
+      <c r="P17" s="24">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="Q17" s="24">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="R17" s="24">
+        <v>0.97289999999999999</v>
+      </c>
+      <c r="S17" s="24">
+        <v>1</v>
+      </c>
+      <c r="T17" s="24">
+        <v>7.4700000000000003E-2</v>
+      </c>
+      <c r="U17" s="24">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="V17" s="24">
+        <v>0.85599999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="25">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F18" s="24">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="G18" s="24">
+        <v>0.10290000000000001</v>
+      </c>
+      <c r="H18" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="I18" s="24">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="J18" s="24">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="K18" s="24">
+        <v>1.37E-2</v>
+      </c>
+      <c r="L18" s="24">
+        <v>0.80640000000000001</v>
+      </c>
+      <c r="N18" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" s="40">
+        <v>2.097</v>
+      </c>
+      <c r="P18" s="28">
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="Q18" s="28">
+        <v>2.8E-3</v>
+      </c>
+      <c r="R18" s="28">
+        <v>0.995</v>
+      </c>
+      <c r="S18" s="28">
+        <v>0</v>
+      </c>
+      <c r="T18" s="28">
+        <v>9.2799999999999994E-2</v>
+      </c>
+      <c r="U18" s="28">
+        <v>2.8E-3</v>
+      </c>
+      <c r="V18" s="28">
+        <v>0.82120000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="4:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="27">
+        <v>2.081</v>
+      </c>
+      <c r="F19" s="28">
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="G19" s="28">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="H19" s="28">
+        <v>0.99729999999999996</v>
+      </c>
+      <c r="I19" s="28">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="J19" s="28">
+        <v>9.7900000000000001E-2</v>
+      </c>
+      <c r="K19" s="28">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="L19" s="28">
+        <v>0.83720000000000006</v>
+      </c>
+      <c r="N19" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="O19" s="42">
+        <v>3.8</v>
+      </c>
+      <c r="P19" s="43">
+        <v>1E-3</v>
+      </c>
+      <c r="Q19" s="43">
+        <v>8.0399999999999999E-2</v>
+      </c>
+      <c r="R19" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="S19" s="43">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="T19" s="43">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="U19" s="43">
+        <v>1.9E-3</v>
+      </c>
+      <c r="V19" s="43">
+        <v>0.89810000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="4:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="35">
+        <v>4.74</v>
+      </c>
+      <c r="F20" s="36">
+        <v>9.4600000000000004E-2</v>
+      </c>
+      <c r="G20" s="37">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="H20" s="36">
+        <v>0.97889999999999999</v>
+      </c>
+      <c r="I20" s="37">
+        <v>0.78569999999999995</v>
+      </c>
+      <c r="J20" s="37">
+        <v>0.1215</v>
+      </c>
+      <c r="K20" s="38">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L20" s="37">
+        <v>0.78420000000000001</v>
+      </c>
+      <c r="N20" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="O20" s="41">
+        <v>3.22</v>
+      </c>
+      <c r="P20" s="43">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="Q20" s="43">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="R20" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="S20" s="43">
+        <v>0.9889</v>
+      </c>
+      <c r="T20" s="43">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="U20" s="43">
+        <v>6.6E-3</v>
+      </c>
+      <c r="V20" s="43">
+        <v>0.87549999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="4:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="30">
+        <v>3.7</v>
+      </c>
+      <c r="F21" s="31">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="G21" s="32">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="H21" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="I21" s="32">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="J21" s="32">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="K21" s="33">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="L21" s="32">
+        <v>0.97750000000000004</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="O21" s="13">
+        <v>1.94</v>
+      </c>
+      <c r="P21" s="20">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="Q21" s="20">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="R21" s="20">
+        <v>0.99739999999999995</v>
+      </c>
+      <c r="S21" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="T21" s="20">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="U21" s="20">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="V21" s="20">
+        <v>0.84370000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="4:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="35">
+        <v>2.21</v>
+      </c>
+      <c r="F22" s="36">
+        <v>5.74E-2</v>
+      </c>
+      <c r="G22" s="37">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H22" s="36">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="I22" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="37">
+        <v>1.4E-3</v>
+      </c>
+      <c r="K22" s="38">
+        <v>0</v>
+      </c>
+      <c r="L22" s="37">
+        <v>0.91590000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="29">
+        <v>3.16</v>
+      </c>
+      <c r="F23" s="31">
+        <v>8.09E-2</v>
+      </c>
+      <c r="G23" s="32">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H23" s="31">
+        <v>0.9879</v>
+      </c>
+      <c r="I23" s="32">
+        <v>0</v>
+      </c>
+      <c r="J23" s="32">
+        <v>5.33E-2</v>
+      </c>
+      <c r="K23" s="33">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="L23" s="32">
+        <v>0.81420000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="4:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="35">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F24" s="36">
+        <v>7.2599999999999998E-2</v>
+      </c>
+      <c r="G24" s="37">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="H24" s="36">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="I24" s="37">
+        <v>1</v>
+      </c>
+      <c r="J24" s="37">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="K24" s="38">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="L24" s="37">
+        <v>0.81989999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D25" s="13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D18" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D19" s="18"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="24"/>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20">
-        <v>6.67</v>
-      </c>
-      <c r="F20">
-        <v>89</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="6">
-        <v>14.05</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" s="2">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D22" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="14">
-        <v>6.7</v>
-      </c>
-      <c r="F22" s="15">
-        <v>0</v>
-      </c>
-      <c r="G22" s="16">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D23" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="15">
-        <v>7.18</v>
-      </c>
-      <c r="F23" s="15">
-        <v>0</v>
-      </c>
-      <c r="G23" s="16">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D24" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="15">
-        <v>2.84</v>
-      </c>
-      <c r="F24" s="15">
-        <v>33</v>
-      </c>
-      <c r="G24" s="16">
-        <v>0</v>
-      </c>
+      <c r="E25" s="13">
+        <v>1.97</v>
+      </c>
+      <c r="F25" s="19">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="G25" s="20">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="20">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="J25" s="20">
+        <v>6.5100000000000005E-2</v>
+      </c>
+      <c r="K25" s="21">
+        <v>2.3E-3</v>
+      </c>
+      <c r="L25" s="20">
+        <v>0.86170000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="H28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="24">
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="D18:D19"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:T16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/statistics/signed_polarization/eigensign.xlsx
+++ b/statistics/signed_polarization/eigensign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\ForumPolarization\statistics\signed_polarization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3417A4F-9DBC-48E6-9798-01EFA9913691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD6331D-D482-48B4-99EC-2959F93EF86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="2205" windowWidth="15300" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="43">
   <si>
     <t>PS</t>
   </si>
@@ -144,6 +144,27 @@
   </si>
   <si>
     <t>consp</t>
+  </si>
+  <si>
+    <t>PE1</t>
+  </si>
+  <si>
+    <t>PE2</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>88.20%</t>
+  </si>
+  <si>
+    <t>84.87%</t>
   </si>
 </sst>
 </file>
@@ -459,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -514,16 +535,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -556,30 +598,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,6 +626,2099 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Signed Intra</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR"/>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Polarization</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>eigensign</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$29:$K$37</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Coronavirus</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>conspiracy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>science</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MensRights</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>WvPatriarchy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>lgbt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Conservative</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>conspiracy</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>space</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$29:$L$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0.00">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>9.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>3.83</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>3.48</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>2.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4751-4386-99AA-77DBC3AB3108}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>random_eigensign</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$29:$K$37</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Coronavirus</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>conspiracy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>science</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MensRights</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>WvPatriarchy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>lgbt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Conservative</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>conspiracy</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>space</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$29:$M$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>3.0680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0.00">
+                  <c:v>2.081</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>4.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>2.21</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>3.16</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4751-4386-99AA-77DBC3AB3108}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2031528671"/>
+        <c:axId val="2031530751"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2031528671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2031530751"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2031530751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2031528671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="el-GR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Signed Inter</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR"/>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Polarization</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>eigensign</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$48:$K$52</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Coron-consp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>science-consp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mrights-WvP</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>lgbt-Cons,</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>consp,-space</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$48:$L$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>6.6740000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.24</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0.00">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>7.18</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>2.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-45D1-49C0-8904-9206F9FBE450}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>random_eigensign</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$48:$K$52</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Coron-consp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>science-consp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mrights-WvP</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>lgbt-Cons,</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>consp,-space</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$48:$M$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>2.96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.097</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0.00">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>3.22</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-45D1-49C0-8904-9206F9FBE450}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1706492255"/>
+        <c:axId val="1886632543"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1706492255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1886632543"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1886632543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1706492255"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="el-GR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29A19EC8-FE56-3D99-DFC7-2A5ABE94D3E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BA7D471-8D35-B827-02BE-955C8D1FE936}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -860,10 +2984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:AD64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17:I25"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,25 +3000,30 @@
     <col min="8" max="8" width="7.85546875" customWidth="1"/>
     <col min="9" max="9" width="8.42578125" customWidth="1"/>
     <col min="10" max="10" width="8.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
     <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" customWidth="1"/>
     <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="24" max="24" width="13" customWidth="1"/>
+    <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D1" s="61" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="N1" s="61" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="N1" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -907,42 +3036,42 @@
       <c r="D2" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="52" t="s">
+      <c r="N2" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="54" t="s">
+      <c r="O2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="56" t="s">
+      <c r="P2" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="58" t="s">
+      <c r="Q2" s="49" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="47"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="59"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="59"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E3" s="52"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="50"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="50"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -971,7 +3100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1000,7 +3129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1029,7 +3158,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -1058,7 +3187,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D8" s="13" t="s">
         <v>10</v>
       </c>
@@ -1084,7 +3213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D9" s="12" t="s">
         <v>15</v>
       </c>
@@ -1099,7 +3228,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D10" s="13" t="s">
         <v>16</v>
       </c>
@@ -1113,7 +3242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D11" s="12" t="s">
         <v>30</v>
       </c>
@@ -1127,7 +3256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D12" s="13" t="s">
         <v>17</v>
       </c>
@@ -1141,7 +3270,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>21</v>
       </c>
@@ -1151,48 +3280,58 @@
       <c r="E15" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50" t="s">
+      <c r="G15" s="56"/>
+      <c r="H15" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I15" s="51"/>
+      <c r="I15" s="58"/>
       <c r="J15" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="44" t="s">
+      <c r="K15" s="51" t="s">
         <v>4</v>
       </c>
       <c r="L15" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="N15" s="60" t="s">
+      <c r="N15" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="O15" s="60" t="s">
+      <c r="O15" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="P15" s="48" t="s">
+      <c r="P15" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="50" t="s">
+      <c r="Q15" s="56"/>
+      <c r="R15" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="S15" s="51"/>
+      <c r="S15" s="58"/>
       <c r="T15" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="U15" s="44" t="s">
+      <c r="U15" s="51" t="s">
         <v>4</v>
       </c>
       <c r="V15" s="46" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y15" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z15" s="67"/>
+      <c r="AA15" s="67"/>
+      <c r="AB15" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC15" s="67"/>
+      <c r="AD15" s="67"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D16" s="47"/>
       <c r="E16" s="47"/>
       <c r="F16" s="18" t="s">
@@ -1208,10 +3347,10 @@
         <v>7</v>
       </c>
       <c r="J16" s="47"/>
-      <c r="K16" s="45"/>
+      <c r="K16" s="52"/>
       <c r="L16" s="47"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
       <c r="P16" s="18" t="s">
         <v>6</v>
       </c>
@@ -1225,10 +3364,28 @@
         <v>7</v>
       </c>
       <c r="T16" s="47"/>
-      <c r="U16" s="45"/>
+      <c r="U16" s="52"/>
       <c r="V16" s="47"/>
-    </row>
-    <row r="17" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="Y16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D17" s="23" t="s">
         <v>22</v>
       </c>
@@ -1283,8 +3440,29 @@
       <c r="V17" s="24">
         <v>0.85599999999999998</v>
       </c>
-    </row>
-    <row r="18" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X17" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y17" s="68">
+        <v>0.92</v>
+      </c>
+      <c r="Z17" s="68">
+        <v>0.06</v>
+      </c>
+      <c r="AA17" s="68">
+        <v>0.02</v>
+      </c>
+      <c r="AB17" s="68">
+        <v>0.91</v>
+      </c>
+      <c r="AC17" s="68">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AD17" s="68">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="18" spans="4:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D18" s="23" t="s">
         <v>23</v>
       </c>
@@ -1339,8 +3517,29 @@
       <c r="V18" s="28">
         <v>0.82120000000000004</v>
       </c>
-    </row>
-    <row r="19" spans="4:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X18" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y18" s="68">
+        <v>0.87</v>
+      </c>
+      <c r="Z18" s="68">
+        <v>0.1</v>
+      </c>
+      <c r="AA18" s="69">
+        <v>0.03</v>
+      </c>
+      <c r="AB18" s="69">
+        <v>0.84</v>
+      </c>
+      <c r="AC18" s="69">
+        <v>0.12</v>
+      </c>
+      <c r="AD18" s="69">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="19" spans="4:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D19" s="26" t="s">
         <v>5</v>
       </c>
@@ -1380,7 +3579,7 @@
       <c r="Q19" s="43">
         <v>8.0399999999999999E-2</v>
       </c>
-      <c r="R19" s="64" t="s">
+      <c r="R19" s="44" t="s">
         <v>28</v>
       </c>
       <c r="S19" s="43">
@@ -1395,8 +3594,29 @@
       <c r="V19" s="43">
         <v>0.89810000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="4:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X19" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y19" s="69">
+        <v>0.67</v>
+      </c>
+      <c r="Z19" s="69">
+        <v>0.33</v>
+      </c>
+      <c r="AA19" s="69">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="69">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="69">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D20" s="35" t="s">
         <v>26</v>
       </c>
@@ -1451,8 +3671,29 @@
       <c r="V20" s="43">
         <v>0.87549999999999994</v>
       </c>
-    </row>
-    <row r="21" spans="4:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X20" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y20" s="70">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="69">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="69">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="70">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="69">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="4:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D21" s="29" t="s">
         <v>24</v>
       </c>
@@ -1495,7 +3736,7 @@
       <c r="R21" s="20">
         <v>0.99739999999999995</v>
       </c>
-      <c r="S21" s="65" t="s">
+      <c r="S21" s="45" t="s">
         <v>28</v>
       </c>
       <c r="T21" s="20">
@@ -1507,8 +3748,29 @@
       <c r="V21" s="20">
         <v>0.84370000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="4:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="X21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y21" s="69">
+        <v>0.34</v>
+      </c>
+      <c r="Z21" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="AA21" s="70">
+        <v>0.01</v>
+      </c>
+      <c r="AB21" s="69">
+        <v>0.25</v>
+      </c>
+      <c r="AC21" s="69">
+        <v>0.71</v>
+      </c>
+      <c r="AD21" s="69">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="22" spans="4:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D22" s="35" t="s">
         <v>15</v>
       </c>
@@ -1537,7 +3799,7 @@
         <v>0.91590000000000005</v>
       </c>
     </row>
-    <row r="23" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D23" s="29" t="s">
         <v>25</v>
       </c>
@@ -1566,7 +3828,7 @@
         <v>0.81420000000000003</v>
       </c>
     </row>
-    <row r="24" spans="4:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D24" s="35" t="s">
         <v>23</v>
       </c>
@@ -1595,7 +3857,7 @@
         <v>0.81989999999999996</v>
       </c>
     </row>
-    <row r="25" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D25" s="13" t="s">
         <v>17</v>
       </c>
@@ -1624,11 +3886,273 @@
         <v>0.86170000000000002</v>
       </c>
     </row>
-    <row r="28" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:30" x14ac:dyDescent="0.25">
       <c r="H28" s="17"/>
+      <c r="L28" t="s">
+        <v>8</v>
+      </c>
+      <c r="M28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="K29" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="M29" s="23">
+        <v>3.0680000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="K30" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" s="14">
+        <v>14.07</v>
+      </c>
+      <c r="M30" s="25">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="4:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K31" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="L31" s="15">
+        <v>4.25</v>
+      </c>
+      <c r="M31" s="27">
+        <v>2.081</v>
+      </c>
+    </row>
+    <row r="32" spans="4:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="K32" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="L32" s="6">
+        <v>9.94</v>
+      </c>
+      <c r="M32" s="35">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="33" spans="11:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K33" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="16">
+        <v>6.7</v>
+      </c>
+      <c r="M33" s="30">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="34" spans="11:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="K34" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="L34" s="6">
+        <v>3.83</v>
+      </c>
+      <c r="M34" s="35">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="35" spans="11:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K35" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="M35" s="29">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="36" spans="11:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="K36" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" s="6">
+        <v>3.48</v>
+      </c>
+      <c r="M36" s="35">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K37" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="M37" s="13">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="47" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="L47" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K48" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L48">
+        <v>6.6740000000000004</v>
+      </c>
+      <c r="M48" s="23">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="49" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K49" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L49" s="4">
+        <v>4.24</v>
+      </c>
+      <c r="M49" s="40">
+        <v>2.097</v>
+      </c>
+    </row>
+    <row r="50" spans="4:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K50" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L50" s="8">
+        <v>6.7</v>
+      </c>
+      <c r="M50" s="42">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="51" spans="4:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K51" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L51" s="9">
+        <v>7.18</v>
+      </c>
+      <c r="M51" s="41">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="52" spans="4:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="K52" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L52" s="9">
+        <v>2.75</v>
+      </c>
+      <c r="M52" s="13">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="59" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D59" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" t="s">
+        <v>36</v>
+      </c>
+      <c r="F59" t="s">
+        <v>37</v>
+      </c>
+      <c r="G59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D60" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="71">
+        <v>0.90080000000000005</v>
+      </c>
+      <c r="F60" s="71">
+        <v>0.91669999999999996</v>
+      </c>
+      <c r="G60" s="71">
+        <v>0.92779999999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D61" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" s="71">
+        <v>0.9375</v>
+      </c>
+      <c r="G61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="4:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D62" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>28</v>
+      </c>
+      <c r="F62" s="71">
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="G62" s="71">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="63" spans="4:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D63" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="71">
+        <v>0.5</v>
+      </c>
+      <c r="F63" s="71">
+        <v>0.9889</v>
+      </c>
+      <c r="G63" s="71">
+        <v>0.12820000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="4:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D64" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="71">
+        <v>0.9294</v>
+      </c>
+      <c r="F64" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="G64" s="71">
+        <v>0.92310000000000003</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="26">
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:T16"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="D1:G1"/>
@@ -1645,16 +4169,9 @@
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:T16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/statistics/signed_polarization/eigensign.xlsx
+++ b/statistics/signed_polarization/eigensign.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\ForumPolarization\statistics\signed_polarization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arist\Documents\ForumPolarization\statistics\signed_polarization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD6331D-D482-48B4-99EC-2959F93EF86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102E4412-B34F-4FE6-817B-CFA4A5BC10BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="43">
   <si>
     <t>PS</t>
   </si>
@@ -161,17 +183,17 @@
     <t>CM</t>
   </si>
   <si>
-    <t>88.20%</t>
+    <t>pea</t>
   </si>
   <si>
-    <t>84.87%</t>
+    <t>ea</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +208,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -480,7 +510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -541,19 +571,11 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -562,10 +584,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -579,6 +601,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -598,22 +635,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -631,7 +678,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -701,7 +748,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="el-GR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -968,7 +1015,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2031530751"/>
@@ -1027,7 +1074,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2031528671"/>
@@ -1069,7 +1116,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="el-GR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1106,7 +1153,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="el-GR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1120,7 +1167,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1190,7 +1237,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="el-GR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1409,7 +1456,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1886632543"/>
@@ -1468,7 +1515,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1706492255"/>
@@ -1510,7 +1557,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="el-GR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1547,7 +1594,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="el-GR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2986,44 +3033,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView tabSelected="1" topLeftCell="H48" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
-    <col min="6" max="7" width="7.42578125" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="6" max="7" width="7.44140625" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" customWidth="1"/>
     <col min="24" max="24" width="13" customWidth="1"/>
-    <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5546875" customWidth="1"/>
+    <col min="26" max="26" width="6.5546875" customWidth="1"/>
+    <col min="27" max="27" width="5" customWidth="1"/>
+    <col min="28" max="28" width="6.21875" customWidth="1"/>
+    <col min="29" max="29" width="5.88671875" customWidth="1"/>
+    <col min="30" max="30" width="6.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="D1" s="48" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="D1" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="N1" s="48" t="s">
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="N1" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3033,45 +3084,45 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="59" t="s">
+      <c r="N2" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="61" t="s">
+      <c r="O2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="63" t="s">
+      <c r="P2" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="49" t="s">
+      <c r="Q2" s="58" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="50"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="50"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D3" s="52"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="59"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="59"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3100,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3129,7 +3180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3158,7 +3209,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -3187,7 +3238,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D8" s="13" t="s">
         <v>10</v>
       </c>
@@ -3213,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D9" s="12" t="s">
         <v>15</v>
       </c>
@@ -3228,7 +3279,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D10" s="13" t="s">
         <v>16</v>
       </c>
@@ -3242,7 +3293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D11" s="12" t="s">
         <v>30</v>
       </c>
@@ -3256,7 +3307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D12" s="13" t="s">
         <v>17</v>
       </c>
@@ -3270,70 +3321,73 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="55" t="s">
+      <c r="F15" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="56"/>
-      <c r="H15" s="57" t="s">
+      <c r="G15" s="54"/>
+      <c r="H15" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="I15" s="58"/>
-      <c r="J15" s="46" t="s">
+      <c r="I15" s="56"/>
+      <c r="J15" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="51" t="s">
+      <c r="K15" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="46" t="s">
+      <c r="L15" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="N15" s="65" t="s">
+      <c r="N15" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="O15" s="65" t="s">
+      <c r="O15" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="P15" s="55" t="s">
+      <c r="P15" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="57" t="s">
+      <c r="Q15" s="54"/>
+      <c r="R15" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="S15" s="58"/>
-      <c r="T15" s="46" t="s">
+      <c r="S15" s="56"/>
+      <c r="T15" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="U15" s="51" t="s">
+      <c r="U15" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="V15" s="46" t="s">
+      <c r="V15" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="Y15" s="67" t="s">
+      <c r="X15" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y15" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="Z15" s="67"/>
-      <c r="AA15" s="67"/>
-      <c r="AB15" s="67" t="s">
+      <c r="Z15" s="69"/>
+      <c r="AA15" s="70"/>
+      <c r="AB15" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="AC15" s="67"/>
-      <c r="AD15" s="67"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
+      <c r="AC15" s="69"/>
+      <c r="AD15" s="70"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
       <c r="F16" s="18" t="s">
         <v>6</v>
       </c>
@@ -3346,11 +3400,11 @@
       <c r="I16" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="47"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="47"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="52"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
       <c r="P16" s="18" t="s">
         <v>6</v>
       </c>
@@ -3363,29 +3417,30 @@
       <c r="S16" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="T16" s="47"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="47"/>
-      <c r="Y16" t="s">
+      <c r="T16" s="52"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="52"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Z16" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AA16" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AB16" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AC16" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AD16" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:30" x14ac:dyDescent="0.3">
       <c r="D17" s="23" t="s">
         <v>22</v>
       </c>
@@ -3443,26 +3498,26 @@
       <c r="X17" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Y17" s="68">
+      <c r="Y17" s="74">
         <v>0.92</v>
       </c>
-      <c r="Z17" s="68">
+      <c r="Z17" s="74">
         <v>0.06</v>
       </c>
-      <c r="AA17" s="68">
+      <c r="AA17" s="74">
         <v>0.02</v>
       </c>
-      <c r="AB17" s="68">
+      <c r="AB17" s="74">
         <v>0.91</v>
       </c>
-      <c r="AC17" s="68">
+      <c r="AC17" s="74">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AD17" s="68">
+      <c r="AD17" s="74">
         <v>0.03</v>
       </c>
     </row>
-    <row r="18" spans="4:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D18" s="23" t="s">
         <v>23</v>
       </c>
@@ -3520,26 +3575,26 @@
       <c r="X18" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="Y18" s="68">
+      <c r="Y18" s="75">
         <v>0.87</v>
       </c>
-      <c r="Z18" s="68">
+      <c r="Z18" s="75">
         <v>0.1</v>
       </c>
-      <c r="AA18" s="69">
+      <c r="AA18" s="75">
         <v>0.03</v>
       </c>
-      <c r="AB18" s="69">
+      <c r="AB18" s="75">
         <v>0.84</v>
       </c>
-      <c r="AC18" s="69">
+      <c r="AC18" s="75">
         <v>0.12</v>
       </c>
-      <c r="AD18" s="69">
+      <c r="AD18" s="75">
         <v>0.04</v>
       </c>
     </row>
-    <row r="19" spans="4:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D19" s="26" t="s">
         <v>5</v>
       </c>
@@ -3597,26 +3652,26 @@
       <c r="X19" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="Y19" s="69">
+      <c r="Y19" s="76">
         <v>0.67</v>
       </c>
-      <c r="Z19" s="69">
+      <c r="Z19" s="76">
         <v>0.33</v>
       </c>
-      <c r="AA19" s="69">
+      <c r="AA19" s="76">
         <v>0</v>
       </c>
-      <c r="AB19" s="69">
+      <c r="AB19" s="76">
         <v>1</v>
       </c>
-      <c r="AC19" s="69">
+      <c r="AC19" s="76">
         <v>0</v>
       </c>
-      <c r="AD19" s="69">
+      <c r="AD19" s="76">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D20" s="35" t="s">
         <v>26</v>
       </c>
@@ -3671,29 +3726,29 @@
       <c r="V20" s="43">
         <v>0.87549999999999994</v>
       </c>
-      <c r="X20" s="41" t="s">
+      <c r="X20" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="Y20" s="70">
+      <c r="Y20" s="77">
         <v>0</v>
       </c>
-      <c r="Z20" s="69">
+      <c r="Z20" s="77">
         <v>1</v>
       </c>
-      <c r="AA20" s="69">
+      <c r="AA20" s="77">
         <v>0</v>
       </c>
-      <c r="AB20" s="70">
+      <c r="AB20" s="77">
         <v>0</v>
       </c>
-      <c r="AC20" s="69">
+      <c r="AC20" s="77">
         <v>1</v>
       </c>
-      <c r="AD20" s="69">
+      <c r="AD20" s="77">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D21" s="29" t="s">
         <v>24</v>
       </c>
@@ -3751,26 +3806,26 @@
       <c r="X21" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Y21" s="69">
+      <c r="Y21" s="73">
         <v>0.34</v>
       </c>
-      <c r="Z21" s="69">
+      <c r="Z21" s="73">
         <v>0.65</v>
       </c>
-      <c r="AA21" s="70">
+      <c r="AA21" s="73">
         <v>0.01</v>
       </c>
-      <c r="AB21" s="69">
+      <c r="AB21" s="73">
         <v>0.25</v>
       </c>
-      <c r="AC21" s="69">
+      <c r="AC21" s="73">
         <v>0.71</v>
       </c>
-      <c r="AD21" s="69">
+      <c r="AD21" s="73">
         <v>0.04</v>
       </c>
     </row>
-    <row r="22" spans="4:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:30" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D22" s="35" t="s">
         <v>15</v>
       </c>
@@ -3799,7 +3854,7 @@
         <v>0.91590000000000005</v>
       </c>
     </row>
-    <row r="23" spans="4:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D23" s="29" t="s">
         <v>25</v>
       </c>
@@ -3828,7 +3883,7 @@
         <v>0.81420000000000003</v>
       </c>
     </row>
-    <row r="24" spans="4:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:30" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D24" s="35" t="s">
         <v>23</v>
       </c>
@@ -3857,7 +3912,7 @@
         <v>0.81989999999999996</v>
       </c>
     </row>
-    <row r="25" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:30" x14ac:dyDescent="0.3">
       <c r="D25" s="13" t="s">
         <v>17</v>
       </c>
@@ -3886,7 +3941,7 @@
         <v>0.86170000000000002</v>
       </c>
     </row>
-    <row r="28" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:30" x14ac:dyDescent="0.3">
       <c r="H28" s="17"/>
       <c r="L28" t="s">
         <v>8</v>
@@ -3895,7 +3950,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:30" x14ac:dyDescent="0.3">
       <c r="K29" s="23" t="s">
         <v>22</v>
       </c>
@@ -3906,7 +3961,7 @@
         <v>3.0680000000000001</v>
       </c>
     </row>
-    <row r="30" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:30" x14ac:dyDescent="0.3">
       <c r="K30" s="23" t="s">
         <v>23</v>
       </c>
@@ -3917,7 +3972,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="31" spans="4:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K31" s="26" t="s">
         <v>5</v>
       </c>
@@ -3928,7 +3983,7 @@
         <v>2.081</v>
       </c>
     </row>
-    <row r="32" spans="4:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:30" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="K32" s="35" t="s">
         <v>26</v>
       </c>
@@ -3939,7 +3994,7 @@
         <v>4.74</v>
       </c>
     </row>
-    <row r="33" spans="11:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="11:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K33" s="29" t="s">
         <v>24</v>
       </c>
@@ -3950,7 +4005,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="34" spans="11:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="11:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="K34" s="35" t="s">
         <v>15</v>
       </c>
@@ -3961,7 +4016,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="35" spans="11:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="11:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K35" s="29" t="s">
         <v>25</v>
       </c>
@@ -3972,7 +4027,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="36" spans="11:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="11:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="K36" s="35" t="s">
         <v>23</v>
       </c>
@@ -3983,7 +4038,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="37" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="11:13" x14ac:dyDescent="0.3">
       <c r="K37" s="13" t="s">
         <v>17</v>
       </c>
@@ -3994,7 +4049,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="47" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="11:13" x14ac:dyDescent="0.3">
       <c r="L47" t="s">
         <v>8</v>
       </c>
@@ -4002,7 +4057,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="11:13" x14ac:dyDescent="0.3">
       <c r="K48" s="5" t="s">
         <v>11</v>
       </c>
@@ -4013,7 +4068,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="49" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K49" s="5" t="s">
         <v>27</v>
       </c>
@@ -4024,7 +4079,7 @@
         <v>2.097</v>
       </c>
     </row>
-    <row r="50" spans="4:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K50" s="7" t="s">
         <v>12</v>
       </c>
@@ -4035,7 +4090,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="51" spans="4:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K51" s="7" t="s">
         <v>31</v>
       </c>
@@ -4046,7 +4101,7 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="52" spans="4:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="K52" s="7" t="s">
         <v>32</v>
       </c>
@@ -4057,102 +4112,145 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="59" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D59" s="66" t="s">
+    <row r="59" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D59" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="23" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="I59" t="s">
+        <v>41</v>
+      </c>
+      <c r="J59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D60" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E60" s="71">
+      <c r="E60" s="24">
         <v>0.90080000000000005</v>
       </c>
-      <c r="F60" s="71">
-        <v>0.91669999999999996</v>
-      </c>
-      <c r="G60" s="71">
-        <v>0.92779999999999996</v>
-      </c>
-    </row>
-    <row r="61" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F60" s="24">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="G60" s="24">
+        <v>0.83559168925022587</v>
+      </c>
+      <c r="H60" s="78"/>
+      <c r="I60" s="79">
+        <v>14800</v>
+      </c>
+      <c r="J60">
+        <v>17712</v>
+      </c>
+      <c r="L60" s="47" cm="1">
+        <f t="array" ref="L60:L64">I60:I64/J60:J64</f>
+        <v>0.83559168925022587</v>
+      </c>
+    </row>
+    <row r="61" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D61" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E61" t="s">
-        <v>41</v>
-      </c>
-      <c r="F61" s="71">
-        <v>0.9375</v>
-      </c>
-      <c r="G61" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="62" spans="4:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E61" s="28">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="F61" s="28">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="G61" s="28">
+        <v>0.81492404429358412</v>
+      </c>
+      <c r="I61" s="80">
+        <v>14645</v>
+      </c>
+      <c r="J61" s="2">
+        <v>17971</v>
+      </c>
+      <c r="L61" s="47">
+        <v>0.81492404429358412</v>
+      </c>
+    </row>
+    <row r="62" spans="4:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D62" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="E62" t="s">
-        <v>28</v>
-      </c>
-      <c r="F62" s="71">
-        <v>0.98809999999999998</v>
-      </c>
-      <c r="G62" s="71">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="63" spans="4:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E62" s="43">
+        <v>0.75339999999999996</v>
+      </c>
+      <c r="F62" s="43">
+        <v>0.81569999999999998</v>
+      </c>
+      <c r="G62" s="43">
+        <v>0.66369047619047616</v>
+      </c>
+      <c r="I62" s="80">
+        <v>223</v>
+      </c>
+      <c r="J62" s="10">
+        <v>336</v>
+      </c>
+      <c r="L62" s="47">
+        <v>0.66369047619047616</v>
+      </c>
+    </row>
+    <row r="63" spans="4:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D63" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="E63" s="71">
-        <v>0.5</v>
-      </c>
-      <c r="F63" s="71">
-        <v>0.9889</v>
-      </c>
-      <c r="G63" s="71">
-        <v>0.12820000000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="4:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E63" s="43">
+        <v>0.82620000000000005</v>
+      </c>
+      <c r="F63" s="43">
+        <v>0.87250000000000005</v>
+      </c>
+      <c r="G63" s="43">
+        <v>0.80487804878048785</v>
+      </c>
+      <c r="I63" s="80">
+        <v>33</v>
+      </c>
+      <c r="J63" s="10">
+        <v>41</v>
+      </c>
+      <c r="L63" s="47">
+        <v>0.80487804878048785</v>
+      </c>
+    </row>
+    <row r="64" spans="4:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D64" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E64" s="71">
-        <v>0.9294</v>
-      </c>
-      <c r="F64" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="G64" s="71">
-        <v>0.92310000000000003</v>
+      <c r="E64" s="20">
+        <v>0.73560000000000003</v>
+      </c>
+      <c r="F64" s="20">
+        <v>0.87749999999999995</v>
+      </c>
+      <c r="G64" s="20">
+        <v>0.63089005235602091</v>
+      </c>
+      <c r="I64" s="80">
+        <v>241</v>
+      </c>
+      <c r="J64" s="3">
+        <v>382</v>
+      </c>
+      <c r="L64" s="47">
+        <v>0.63089005235602091</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:T16"/>
+  <mergeCells count="27">
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="D1:G1"/>
@@ -4169,6 +4267,17 @@
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="N15:N16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="X15:X16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/statistics/signed_polarization/eigensign.xlsx
+++ b/statistics/signed_polarization/eigensign.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arist\Documents\ForumPolarization\statistics\signed_polarization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\ForumPolarization\statistics\signed_polarization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102E4412-B34F-4FE6-817B-CFA4A5BC10BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625F45DE-9D89-4DD9-BB09-7361BB9642A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="44">
   <si>
     <t>PS</t>
   </si>
@@ -147,9 +147,6 @@
     <t>NO</t>
   </si>
   <si>
-    <t>Subs,</t>
-  </si>
-  <si>
     <t>consp,</t>
   </si>
   <si>
@@ -187,6 +184,12 @@
   </si>
   <si>
     <t>ea</t>
+  </si>
+  <si>
+    <t>lgbt-Cons</t>
+  </si>
+  <si>
+    <t>consp-space</t>
   </si>
 </sst>
 </file>
@@ -575,7 +578,31 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -584,10 +611,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -601,21 +628,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -635,6 +647,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -650,17 +665,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -678,7 +685,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -748,7 +755,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="el-GR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1015,7 +1022,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2031530751"/>
@@ -1074,7 +1081,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2031528671"/>
@@ -1116,7 +1123,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="el-GR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1153,7 +1160,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="el-GR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1167,7 +1174,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1237,7 +1244,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="el-GR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1287,10 +1294,10 @@
                   <c:v>Mrights-WvP</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>lgbt-Cons,</c:v>
+                  <c:v>lgbt-Cons</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>consp,-space</c:v>
+                  <c:v>consp-space</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1364,10 +1371,10 @@
                   <c:v>Mrights-WvP</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>lgbt-Cons,</c:v>
+                  <c:v>lgbt-Cons</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>consp,-space</c:v>
+                  <c:v>consp-space</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1456,7 +1463,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1886632543"/>
@@ -1515,7 +1522,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1706492255"/>
@@ -1557,7 +1564,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="el-GR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1594,7 +1601,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="el-GR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3033,48 +3040,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H48" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
-    <col min="6" max="7" width="7.44140625" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" customWidth="1"/>
-    <col min="10" max="10" width="8.109375" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="7" width="7.42578125" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
     <col min="24" max="24" width="13" customWidth="1"/>
-    <col min="25" max="25" width="7.5546875" customWidth="1"/>
-    <col min="26" max="26" width="6.5546875" customWidth="1"/>
+    <col min="25" max="25" width="7.5703125" customWidth="1"/>
+    <col min="26" max="26" width="6.5703125" customWidth="1"/>
     <col min="27" max="27" width="5" customWidth="1"/>
-    <col min="28" max="28" width="6.21875" customWidth="1"/>
-    <col min="29" max="29" width="5.88671875" customWidth="1"/>
-    <col min="30" max="30" width="6.77734375" customWidth="1"/>
+    <col min="28" max="28" width="6.28515625" customWidth="1"/>
+    <col min="29" max="29" width="5.85546875" customWidth="1"/>
+    <col min="30" max="30" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="D1" s="57" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="N1" s="57" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="N1" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3084,50 +3091,50 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="49" t="s">
+      <c r="D2" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="64" t="s">
+      <c r="N2" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="66" t="s">
+      <c r="P2" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="58" t="s">
+      <c r="Q2" s="59" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="59"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="59"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="D3" s="57"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="60"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="60"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2">
         <v>6.7</v>
@@ -3151,12 +3158,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="14">
         <v>14.07</v>
@@ -3180,7 +3187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3209,7 +3216,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -3226,7 +3233,7 @@
         <v>4</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O7" s="9">
         <v>7.18</v>
@@ -3238,7 +3245,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D8" s="13" t="s">
         <v>10</v>
       </c>
@@ -3246,13 +3253,13 @@
         <v>6.7</v>
       </c>
       <c r="F8" s="13">
+        <v>149</v>
+      </c>
+      <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="3">
-        <v>149</v>
-      </c>
       <c r="N8" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O8" s="9">
         <v>2.75</v>
@@ -3264,7 +3271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D9" s="12" t="s">
         <v>15</v>
       </c>
@@ -3279,7 +3286,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D10" s="13" t="s">
         <v>16</v>
       </c>
@@ -3293,9 +3300,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D11" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="6">
         <v>3.48</v>
@@ -3307,7 +3314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D12" s="13" t="s">
         <v>17</v>
       </c>
@@ -3321,73 +3328,73 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="51" t="s">
+      <c r="D15" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="53" t="s">
+      <c r="F15" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="54"/>
-      <c r="H15" s="55" t="s">
+      <c r="G15" s="66"/>
+      <c r="H15" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="I15" s="56"/>
-      <c r="J15" s="51" t="s">
+      <c r="I15" s="68"/>
+      <c r="J15" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="49" t="s">
+      <c r="K15" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="51" t="s">
+      <c r="L15" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="N15" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="O15" s="48" t="s">
+      <c r="N15" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="P15" s="53" t="s">
+      <c r="P15" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="55" t="s">
+      <c r="Q15" s="66"/>
+      <c r="R15" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="S15" s="56"/>
-      <c r="T15" s="51" t="s">
+      <c r="S15" s="68"/>
+      <c r="T15" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="U15" s="49" t="s">
+      <c r="U15" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="V15" s="51" t="s">
+      <c r="V15" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="X15" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y15" s="68" t="s">
+      <c r="X15" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y15" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="Z15" s="69"/>
-      <c r="AA15" s="70"/>
-      <c r="AB15" s="68" t="s">
+      <c r="Z15" s="77"/>
+      <c r="AA15" s="78"/>
+      <c r="AB15" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="AC15" s="69"/>
-      <c r="AD15" s="70"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
+      <c r="AC15" s="77"/>
+      <c r="AD15" s="78"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
       <c r="F16" s="18" t="s">
         <v>6</v>
       </c>
@@ -3400,11 +3407,11 @@
       <c r="I16" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="52"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="52"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="57"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
       <c r="P16" s="18" t="s">
         <v>6</v>
       </c>
@@ -3417,30 +3424,30 @@
       <c r="S16" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="T16" s="52"/>
-      <c r="U16" s="50"/>
-      <c r="V16" s="52"/>
-      <c r="X16" s="72"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="57"/>
+      <c r="X16" s="80"/>
       <c r="Y16" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z16" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="Z16" s="23" t="s">
+      <c r="AA16" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AA16" s="10" t="s">
-        <v>40</v>
-      </c>
       <c r="AB16" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC16" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AC16" s="23" t="s">
+      <c r="AD16" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AD16" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="4:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D17" s="23" t="s">
         <v>22</v>
       </c>
@@ -3448,25 +3455,25 @@
         <v>3.0680000000000001</v>
       </c>
       <c r="F17" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G17" s="24">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="G17" s="24">
-        <v>3.5700000000000003E-2</v>
-      </c>
       <c r="H17" s="24">
-        <v>0.84619999999999995</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="I17" s="24">
-        <v>0.96919999999999995</v>
+        <v>0.88239999999999996</v>
       </c>
       <c r="J17" s="24">
-        <v>8.1100000000000005E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="K17" s="24">
-        <v>1.8800000000000001E-2</v>
+        <v>0.25819999999999999</v>
       </c>
       <c r="L17" s="24">
-        <v>0.89780000000000004</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="N17" s="23" t="s">
         <v>11</v>
@@ -3481,16 +3488,16 @@
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="R17" s="24">
-        <v>0.97289999999999999</v>
+        <v>0.89019999999999999</v>
       </c>
       <c r="S17" s="24">
-        <v>1</v>
+        <v>0.91669999999999996</v>
       </c>
       <c r="T17" s="24">
-        <v>7.4700000000000003E-2</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="U17" s="24">
-        <v>1.8499999999999999E-2</v>
+        <v>0.91469999999999996</v>
       </c>
       <c r="V17" s="24">
         <v>0.85599999999999998</v>
@@ -3498,26 +3505,26 @@
       <c r="X17" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Y17" s="74">
+      <c r="Y17" s="49">
         <v>0.92</v>
       </c>
-      <c r="Z17" s="74">
+      <c r="Z17" s="49">
         <v>0.06</v>
       </c>
-      <c r="AA17" s="74">
+      <c r="AA17" s="49">
         <v>0.02</v>
       </c>
-      <c r="AB17" s="74">
+      <c r="AB17" s="49">
         <v>0.91</v>
       </c>
-      <c r="AC17" s="74">
+      <c r="AC17" s="49">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AD17" s="74">
+      <c r="AD17" s="49">
         <v>0.03</v>
       </c>
     </row>
-    <row r="18" spans="4:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D18" s="23" t="s">
         <v>23</v>
       </c>
@@ -3525,22 +3532,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="F18" s="24">
-        <v>9.5999999999999992E-3</v>
+        <v>1.0500000000000001E-2</v>
       </c>
       <c r="G18" s="24">
-        <v>0.10290000000000001</v>
+        <v>0.1019</v>
       </c>
       <c r="H18" s="24">
-        <v>0.25</v>
+        <v>0.55559999999999998</v>
       </c>
       <c r="I18" s="24">
-        <v>0.92400000000000004</v>
+        <v>0.92810000000000004</v>
       </c>
       <c r="J18" s="24">
-        <v>5.6599999999999998E-2</v>
+        <v>6.3200000000000006E-2</v>
       </c>
       <c r="K18" s="24">
-        <v>1.37E-2</v>
+        <v>0.25569999999999998</v>
       </c>
       <c r="L18" s="24">
         <v>0.80640000000000001</v>
@@ -3558,16 +3565,16 @@
         <v>2.8E-3</v>
       </c>
       <c r="R18" s="28">
-        <v>0.995</v>
+        <v>0.85489999999999999</v>
       </c>
       <c r="S18" s="28">
-        <v>0</v>
+        <v>0.9375</v>
       </c>
       <c r="T18" s="28">
-        <v>9.2799999999999994E-2</v>
+        <v>0.1414</v>
       </c>
       <c r="U18" s="28">
-        <v>2.8E-3</v>
+        <v>0.82069999999999999</v>
       </c>
       <c r="V18" s="28">
         <v>0.82120000000000004</v>
@@ -3575,26 +3582,26 @@
       <c r="X18" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="Y18" s="75">
+      <c r="Y18" s="50">
         <v>0.87</v>
       </c>
-      <c r="Z18" s="75">
+      <c r="Z18" s="50">
         <v>0.1</v>
       </c>
-      <c r="AA18" s="75">
+      <c r="AA18" s="50">
         <v>0.03</v>
       </c>
-      <c r="AB18" s="75">
+      <c r="AB18" s="50">
         <v>0.84</v>
       </c>
-      <c r="AC18" s="75">
+      <c r="AC18" s="50">
         <v>0.12</v>
       </c>
-      <c r="AD18" s="75">
+      <c r="AD18" s="50">
         <v>0.04</v>
       </c>
     </row>
-    <row r="19" spans="4:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D19" s="26" t="s">
         <v>5</v>
       </c>
@@ -3602,22 +3609,22 @@
         <v>2.081</v>
       </c>
       <c r="F19" s="28">
-        <v>4.4699999999999997E-2</v>
+        <v>4.4299999999999999E-2</v>
       </c>
       <c r="G19" s="28">
-        <v>4.8999999999999998E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="H19" s="28">
-        <v>0.99729999999999996</v>
-      </c>
-      <c r="I19" s="28">
-        <v>0.33329999999999999</v>
+        <v>0.99670000000000003</v>
+      </c>
+      <c r="I19" s="54" t="s">
+        <v>28</v>
       </c>
       <c r="J19" s="28">
-        <v>9.7900000000000001E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="K19" s="28">
-        <v>2.8999999999999998E-3</v>
+        <v>1.29E-2</v>
       </c>
       <c r="L19" s="28">
         <v>0.83720000000000006</v>
@@ -3644,7 +3651,7 @@
         <v>7.3000000000000001E-3</v>
       </c>
       <c r="U19" s="43">
-        <v>1.9E-3</v>
+        <v>0.26669999999999999</v>
       </c>
       <c r="V19" s="43">
         <v>0.89810000000000001</v>
@@ -3652,26 +3659,26 @@
       <c r="X19" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="Y19" s="76">
+      <c r="Y19" s="51">
         <v>0.67</v>
       </c>
-      <c r="Z19" s="76">
+      <c r="Z19" s="51">
         <v>0.33</v>
       </c>
-      <c r="AA19" s="76">
+      <c r="AA19" s="51">
         <v>0</v>
       </c>
-      <c r="AB19" s="76">
+      <c r="AB19" s="51">
         <v>1</v>
       </c>
-      <c r="AC19" s="76">
+      <c r="AC19" s="51">
         <v>0</v>
       </c>
-      <c r="AD19" s="76">
+      <c r="AD19" s="51">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D20" s="35" t="s">
         <v>26</v>
       </c>
@@ -3679,22 +3686,22 @@
         <v>4.74</v>
       </c>
       <c r="F20" s="36">
-        <v>9.4600000000000004E-2</v>
+        <v>9.1899999999999996E-2</v>
       </c>
       <c r="G20" s="37">
-        <v>1.2800000000000001E-2</v>
+        <v>1.2200000000000001E-2</v>
       </c>
       <c r="H20" s="36">
-        <v>0.97889999999999999</v>
+        <v>0.97430000000000005</v>
       </c>
       <c r="I20" s="37">
-        <v>0.78569999999999995</v>
+        <v>0.91669999999999996</v>
       </c>
       <c r="J20" s="37">
-        <v>0.1215</v>
+        <v>0.11269999999999999</v>
       </c>
       <c r="K20" s="38">
-        <v>8.0000000000000002E-3</v>
+        <v>6.7100000000000007E-2</v>
       </c>
       <c r="L20" s="37">
         <v>0.78420000000000001</v>
@@ -3721,34 +3728,34 @@
         <v>5.2499999999999998E-2</v>
       </c>
       <c r="U20" s="43">
-        <v>6.6E-3</v>
+        <v>0.12820000000000001</v>
       </c>
       <c r="V20" s="43">
-        <v>0.87549999999999994</v>
+        <v>0.86429999999999996</v>
       </c>
       <c r="X20" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="Y20" s="77">
+      <c r="Y20" s="52">
         <v>0</v>
       </c>
-      <c r="Z20" s="77">
+      <c r="Z20" s="52">
         <v>1</v>
       </c>
-      <c r="AA20" s="77">
+      <c r="AA20" s="52">
         <v>0</v>
       </c>
-      <c r="AB20" s="77">
+      <c r="AB20" s="52">
         <v>0</v>
       </c>
-      <c r="AC20" s="77">
+      <c r="AC20" s="52">
         <v>1</v>
       </c>
-      <c r="AD20" s="77">
+      <c r="AD20" s="52">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D21" s="29" t="s">
         <v>24</v>
       </c>
@@ -3756,22 +3763,22 @@
         <v>3.7</v>
       </c>
       <c r="F21" s="31">
-        <v>8.9999999999999998E-4</v>
+        <v>0.13539999999999999</v>
       </c>
       <c r="G21" s="32">
-        <v>0.13400000000000001</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="H21" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="I21" s="32">
-        <v>0.99750000000000005</v>
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="I21" s="55" t="s">
+        <v>28</v>
       </c>
       <c r="J21" s="32">
-        <v>6.1999999999999998E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="K21" s="33">
-        <v>1.6999999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="L21" s="32">
         <v>0.97750000000000004</v>
@@ -3789,16 +3796,16 @@
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="R21" s="20">
-        <v>0.99739999999999995</v>
+        <v>0.90590000000000004</v>
       </c>
       <c r="S21" s="45" t="s">
         <v>28</v>
       </c>
       <c r="T21" s="20">
-        <v>6.9699999999999998E-2</v>
+        <v>0.1313</v>
       </c>
       <c r="U21" s="20">
-        <v>4.7999999999999996E-3</v>
+        <v>0.92310000000000003</v>
       </c>
       <c r="V21" s="20">
         <v>0.84370000000000001</v>
@@ -3806,26 +3813,26 @@
       <c r="X21" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Y21" s="73">
+      <c r="Y21" s="48">
         <v>0.34</v>
       </c>
-      <c r="Z21" s="73">
+      <c r="Z21" s="48">
         <v>0.65</v>
       </c>
-      <c r="AA21" s="73">
+      <c r="AA21" s="48">
         <v>0.01</v>
       </c>
-      <c r="AB21" s="73">
+      <c r="AB21" s="48">
         <v>0.25</v>
       </c>
-      <c r="AC21" s="73">
+      <c r="AC21" s="48">
         <v>0.71</v>
       </c>
-      <c r="AD21" s="73">
+      <c r="AD21" s="48">
         <v>0.04</v>
       </c>
     </row>
-    <row r="22" spans="4:30" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D22" s="35" t="s">
         <v>15</v>
       </c>
@@ -3833,13 +3840,13 @@
         <v>2.21</v>
       </c>
       <c r="F22" s="36">
-        <v>5.74E-2</v>
+        <v>5.5899999999999998E-2</v>
       </c>
       <c r="G22" s="37">
-        <v>2.0000000000000001E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="H22" s="36">
-        <v>0.99860000000000004</v>
+        <v>1</v>
       </c>
       <c r="I22" s="39" t="s">
         <v>28</v>
@@ -3854,7 +3861,7 @@
         <v>0.91590000000000005</v>
       </c>
     </row>
-    <row r="23" spans="4:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D23" s="29" t="s">
         <v>25</v>
       </c>
@@ -3862,28 +3869,28 @@
         <v>3.16</v>
       </c>
       <c r="F23" s="31">
-        <v>8.09E-2</v>
+        <v>7.9500000000000001E-2</v>
       </c>
       <c r="G23" s="32">
-        <v>5.0000000000000001E-3</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="H23" s="31">
-        <v>0.9879</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="I23" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="32">
-        <v>5.33E-2</v>
+        <v>6.6299999999999998E-2</v>
       </c>
       <c r="K23" s="33">
-        <v>1.0800000000000001E-2</v>
+        <v>0.15790000000000001</v>
       </c>
       <c r="L23" s="32">
         <v>0.81420000000000003</v>
       </c>
     </row>
-    <row r="24" spans="4:30" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D24" s="35" t="s">
         <v>23</v>
       </c>
@@ -3891,28 +3898,28 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F24" s="36">
-        <v>7.2599999999999998E-2</v>
+        <v>7.9600000000000004E-2</v>
       </c>
       <c r="G24" s="37">
-        <v>6.7000000000000002E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H24" s="36">
-        <v>0.97919999999999996</v>
+        <v>0.97389999999999999</v>
       </c>
       <c r="I24" s="37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J24" s="37">
-        <v>8.4000000000000005E-2</v>
+        <v>0.1067</v>
       </c>
       <c r="K24" s="38">
-        <v>7.9000000000000008E-3</v>
+        <v>0.15379999999999999</v>
       </c>
       <c r="L24" s="37">
         <v>0.81989999999999996</v>
       </c>
     </row>
-    <row r="25" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D25" s="13" t="s">
         <v>17</v>
       </c>
@@ -3923,25 +3930,25 @@
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="G25" s="20">
-        <v>3.8899999999999997E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="H25" s="22" t="s">
         <v>28</v>
       </c>
       <c r="I25" s="20">
-        <v>0.99750000000000005</v>
+        <v>1</v>
       </c>
       <c r="J25" s="20">
-        <v>6.5100000000000005E-2</v>
+        <v>6.1400000000000003E-2</v>
       </c>
       <c r="K25" s="21">
-        <v>2.3E-3</v>
+        <v>0</v>
       </c>
       <c r="L25" s="20">
         <v>0.86170000000000002</v>
       </c>
     </row>
-    <row r="28" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:30" x14ac:dyDescent="0.25">
       <c r="H28" s="17"/>
       <c r="L28" t="s">
         <v>8</v>
@@ -3950,7 +3957,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:30" x14ac:dyDescent="0.25">
       <c r="K29" s="23" t="s">
         <v>22</v>
       </c>
@@ -3961,7 +3968,7 @@
         <v>3.0680000000000001</v>
       </c>
     </row>
-    <row r="30" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:30" x14ac:dyDescent="0.25">
       <c r="K30" s="23" t="s">
         <v>23</v>
       </c>
@@ -3972,7 +3979,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="31" spans="4:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K31" s="26" t="s">
         <v>5</v>
       </c>
@@ -3983,7 +3990,7 @@
         <v>2.081</v>
       </c>
     </row>
-    <row r="32" spans="4:30" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="K32" s="35" t="s">
         <v>26</v>
       </c>
@@ -3994,7 +4001,7 @@
         <v>4.74</v>
       </c>
     </row>
-    <row r="33" spans="11:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="11:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K33" s="29" t="s">
         <v>24</v>
       </c>
@@ -4005,7 +4012,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="34" spans="11:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="11:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="K34" s="35" t="s">
         <v>15</v>
       </c>
@@ -4016,7 +4023,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="35" spans="11:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="11:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K35" s="29" t="s">
         <v>25</v>
       </c>
@@ -4027,7 +4034,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="36" spans="11:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="11:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="K36" s="35" t="s">
         <v>23</v>
       </c>
@@ -4038,7 +4045,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="37" spans="11:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K37" s="13" t="s">
         <v>17</v>
       </c>
@@ -4049,7 +4056,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="47" spans="11:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="11:13" x14ac:dyDescent="0.25">
       <c r="L47" t="s">
         <v>8</v>
       </c>
@@ -4057,7 +4064,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="11:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K48" s="5" t="s">
         <v>11</v>
       </c>
@@ -4068,7 +4075,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="49" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K49" s="5" t="s">
         <v>27</v>
       </c>
@@ -4079,7 +4086,7 @@
         <v>2.097</v>
       </c>
     </row>
-    <row r="50" spans="4:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="4:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K50" s="7" t="s">
         <v>12</v>
       </c>
@@ -4090,9 +4097,9 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="51" spans="4:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="4:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K51" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="L51" s="9">
         <v>7.18</v>
@@ -4101,9 +4108,9 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="52" spans="4:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="K52" s="7" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="L52" s="9">
         <v>2.75</v>
@@ -4112,27 +4119,27 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="59" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D59" s="46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E59" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F59" s="23" t="s">
         <v>36</v>
-      </c>
-      <c r="F59" s="23" t="s">
-        <v>37</v>
       </c>
       <c r="G59" s="23" t="s">
         <v>4</v>
       </c>
       <c r="I59" t="s">
+        <v>40</v>
+      </c>
+      <c r="J59" t="s">
         <v>41</v>
       </c>
-      <c r="J59" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="60" spans="4:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D60" s="23" t="s">
         <v>11</v>
       </c>
@@ -4143,21 +4150,21 @@
         <v>0.83699999999999997</v>
       </c>
       <c r="G60" s="24">
-        <v>0.83559168925022587</v>
-      </c>
-      <c r="H60" s="78"/>
-      <c r="I60" s="79">
-        <v>14800</v>
+        <v>0.8182588075880759</v>
+      </c>
+      <c r="H60" s="53"/>
+      <c r="I60" s="2">
+        <v>14493</v>
       </c>
       <c r="J60">
         <v>17712</v>
       </c>
       <c r="L60" s="47" cm="1">
         <f t="array" ref="L60:L64">I60:I64/J60:J64</f>
-        <v>0.83559168925022587</v>
-      </c>
-    </row>
-    <row r="61" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.8182588075880759</v>
+      </c>
+    </row>
+    <row r="61" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D61" s="26" t="s">
         <v>27</v>
       </c>
@@ -4168,19 +4175,19 @@
         <v>0.83699999999999997</v>
       </c>
       <c r="G61" s="28">
-        <v>0.81492404429358412</v>
-      </c>
-      <c r="I61" s="80">
-        <v>14645</v>
+        <v>0.79906516053641974</v>
+      </c>
+      <c r="I61" s="5">
+        <v>14360</v>
       </c>
       <c r="J61" s="2">
         <v>17971</v>
       </c>
       <c r="L61" s="47">
-        <v>0.81492404429358412</v>
-      </c>
-    </row>
-    <row r="62" spans="4:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.79906516053641974</v>
+      </c>
+    </row>
+    <row r="62" spans="4:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D62" s="41" t="s">
         <v>12</v>
       </c>
@@ -4191,19 +4198,19 @@
         <v>0.81569999999999998</v>
       </c>
       <c r="G62" s="43">
-        <v>0.66369047619047616</v>
-      </c>
-      <c r="I62" s="80">
-        <v>223</v>
+        <v>0.69940476190476186</v>
+      </c>
+      <c r="I62" s="5">
+        <v>235</v>
       </c>
       <c r="J62" s="10">
         <v>336</v>
       </c>
       <c r="L62" s="47">
-        <v>0.66369047619047616</v>
-      </c>
-    </row>
-    <row r="63" spans="4:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.69940476190476186</v>
+      </c>
+    </row>
+    <row r="63" spans="4:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D63" s="41" t="s">
         <v>18</v>
       </c>
@@ -4216,7 +4223,7 @@
       <c r="G63" s="43">
         <v>0.80487804878048785</v>
       </c>
-      <c r="I63" s="80">
+      <c r="I63" s="5">
         <v>33</v>
       </c>
       <c r="J63" s="10">
@@ -4226,7 +4233,7 @@
         <v>0.80487804878048785</v>
       </c>
     </row>
-    <row r="64" spans="4:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D64" s="13" t="s">
         <v>19</v>
       </c>
@@ -4237,20 +4244,31 @@
         <v>0.87749999999999995</v>
       </c>
       <c r="G64" s="20">
-        <v>0.63089005235602091</v>
-      </c>
-      <c r="I64" s="80">
-        <v>241</v>
+        <v>0.82198952879581155</v>
+      </c>
+      <c r="I64" s="5">
+        <v>314</v>
       </c>
       <c r="J64" s="3">
         <v>382</v>
       </c>
       <c r="L64" s="47">
-        <v>0.63089005235602091</v>
+        <v>0.82198952879581155</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:T16"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="D1:G1"/>
@@ -4267,17 +4285,6 @@
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="N15:N16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="X15:X16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
